--- a/Learning Selenium/src/excelpackage/Proposalways.xlsx
+++ b/Learning Selenium/src/excelpackage/Proposalways.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15150" windowHeight="6510" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login Credentials" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sample Data" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:M20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Email Address</t>
   </si>
@@ -49,6 +50,24 @@
   </si>
   <si>
     <t>umang.pasricha@webners.com</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Naman</t>
+  </si>
+  <si>
+    <t>Mahesh</t>
+  </si>
+  <si>
+    <t>Vikas</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -409,7 +428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -490,13 +509,60 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>45464566</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>15212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>211241</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
